--- a/public/downloads/import_employees.xlsx
+++ b/public/downloads/import_employees.xlsx
@@ -5,151 +5,180 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Employee Id</t>
-  </si>
-  <si>
-    <t>Role Type</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Business Unit</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Reporting manager employee ID</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Employment Status</t>
-  </si>
-  <si>
-    <t>Date of joining</t>
-  </si>
-  <si>
-    <t>Date of leaving</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>Work telephone number</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Salary Currency</t>
-  </si>
-  <si>
-    <t>Pay Frequency</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Grame</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>04111</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>gsmith@example.com</t>
-  </si>
-  <si>
-    <t>SAU</t>
-  </si>
-  <si>
-    <t>EMD</t>
-  </si>
-  <si>
-    <t>EMPP0002</t>
-  </si>
-  <si>
-    <t>MGR</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>PERM</t>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>MNT</t>
-  </si>
-  <si>
-    <t>Hansie</t>
-  </si>
-  <si>
-    <t>Cronje</t>
-  </si>
-  <si>
-    <t>23591</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>hcronje@example.com</t>
-  </si>
-  <si>
-    <t>EPM</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>0204</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting manager employee ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of joining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of leaving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work telephone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Postal Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilan.b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcop@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDVB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsolo@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0204</t>
   </si>
 </sst>
 </file>
@@ -157,11 +186,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,14 +214,22 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -230,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,15 +291,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,52 +308,55 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -392,35 +428,35 @@
   </sheetPr>
   <dimension ref="A1:IW3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="9"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -433,7 +469,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -445,10 +481,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -457,16 +493,16 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -475,7 +511,7 @@
       <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
@@ -484,12 +520,24 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="AB1" s="0"/>
       <c r="AC1" s="0"/>
       <c r="AD1" s="0"/>
@@ -721,140 +769,143 @@
       <c r="IV1" s="0"/>
       <c r="IW1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>26</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>40695</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="8" t="n">
+        <v>4012345678</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="W2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="10" t="n">
-        <v>40695</v>
-      </c>
-      <c r="N2" s="11" t="n">
-        <v>42156</v>
-      </c>
-      <c r="O2" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="7" t="n">
-        <v>4012345678</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="n">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="K3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="N3" s="11" t="n">
+        <v>41465</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="8" t="n">
+        <v>123456780</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>4012345679</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="U3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="10" t="n">
-        <v>41465</v>
-      </c>
-      <c r="N3" s="11" t="n">
-        <v>42192</v>
-      </c>
-      <c r="O3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>123456780</v>
-      </c>
-      <c r="R3" s="7" t="n">
-        <v>4012345679</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="6" t="n">
+      <c r="V3" s="7" t="n">
         <v>32000</v>
       </c>
+      <c r="W3" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="gsmith@example.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="hcronje@example.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="dcop@example.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
